--- a/homework#2.xlsx
+++ b/homework#2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
@@ -265,10 +265,10 @@
     <t>Transfer/sec:    321.32KB</t>
   </si>
   <si>
-    <t xml:space="preserve">Создаем составной индекс по обоим полям, которые используются в запросе. Иденкс используется частично, так как по обоим полям условие с неравенством. </t>
-  </si>
-  <si>
     <t>Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создаем составной индекс по обоим полям, которые используются в запросе. Так как ключи в индексе отсортированы, то вначале выбирается поддерево, подходящее под условие по первому полю first_name, затем из этого поддерева выбираются узлы удовляютвоющие условию по last_name. </t>
   </si>
 </sst>
 </file>
@@ -546,11 +546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514694656"/>
-        <c:axId val="514699360"/>
+        <c:axId val="197773736"/>
+        <c:axId val="200346760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="514694656"/>
+        <c:axId val="197773736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -593,7 +593,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514699360"/>
+        <c:crossAx val="200346760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -601,7 +601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514699360"/>
+        <c:axId val="200346760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +652,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514694656"/>
+        <c:crossAx val="197773736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -929,11 +929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118360528"/>
-        <c:axId val="118357000"/>
+        <c:axId val="199253528"/>
+        <c:axId val="199253920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118360528"/>
+        <c:axId val="199253528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +976,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118357000"/>
+        <c:crossAx val="199253920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -984,7 +984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118357000"/>
+        <c:axId val="199253920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1035,7 +1035,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118360528"/>
+        <c:crossAx val="199253528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,7 +2500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34:D37"/>
     </sheetView>
   </sheetViews>
@@ -2624,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,14 +2639,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
